--- a/Client/Excel/TerrainType.xlsx
+++ b/Client/Excel/TerrainType.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -49,13 +49,34 @@
   <si>
     <t>drag</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>round</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +87,21 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -92,8 +128,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -371,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -383,7 +422,7 @@
     <col min="2" max="4" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +438,11 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -415,6 +457,9 @@
       </c>
       <c r="E2">
         <v>0.3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Excel/TerrainType.xlsx
+++ b/Client/Excel/TerrainType.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -36,14 +36,6 @@
   </si>
   <si>
     <t>side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grass_Top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grass_Side</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -70,6 +62,35 @@
       <t>round</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass_Top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass_Side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Grass_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trans</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -410,19 +431,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="4" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,14 +461,17 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -450,16 +479,19 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
         <v>0.3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Excel/TerrainType.xlsx
+++ b/Client/Excel/TerrainType.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -431,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -444,11 +440,10 @@
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,16 +457,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -479,19 +471,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>0.3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
